--- a/exampledata.xlsx
+++ b/exampledata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Lea/Library/Mobile Documents/com~apple~CloudDocs/CRITFC/R Packages/cutoffvalue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777FEF57-85A1-3D4D-8E24-3EDBB4D5810E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614CF68F-2F8D-5A4F-BD78-74BCEA81C2E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11960" yWindow="5900" windowWidth="27640" windowHeight="16940" xr2:uid="{1440C297-E78F-A44D-8474-CC694491FEE4}"/>
+    <workbookView xWindow="2600" yWindow="2700" windowWidth="27640" windowHeight="16940" xr2:uid="{1440C297-E78F-A44D-8474-CC694491FEE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,15 +36,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>DATA</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -74,8 +73,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,504 +390,507 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{150B9484-691C-EF40-845C-BB9741F0FFE8}">
-  <dimension ref="A1:A101"/>
+  <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
+      <c r="A1" s="1">
+        <v>-0.48606267792723351</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="1">
+        <v>0.53422918529499985</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>-0.48606267792723351</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>0.53422918529499985</v>
-      </c>
-    </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>-0.48606267792723351</v>
+      <c r="A4" s="1">
+        <v>0.55857059314096447</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>0.55857059314096447</v>
+      <c r="A5" s="1">
+        <v>0.78115018742295506</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>0.78115018742295506</v>
+      <c r="A6" s="1">
+        <v>0.6354006636946874</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>0.6354006636946874</v>
+      <c r="A7" s="1">
+        <v>-0.39621425668838783</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>-0.39621425668838783</v>
+      <c r="A8" s="1">
+        <v>-0.43489520518715258</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>-0.43489520518715258</v>
+      <c r="A9" s="1">
+        <v>-0.35757605423256755</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="1">
+        <v>-0.39836755301590709</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>-0.35757605423256755</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>-0.39836755301590709</v>
-      </c>
-    </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>-0.35757605423256755</v>
+      <c r="A12" s="1">
+        <v>-0.22732922533560415</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>-0.22732922533560415</v>
+      <c r="A13" s="1">
+        <v>-0.24003813957360537</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>-0.24003813957360537</v>
+      <c r="A14" s="1">
+        <v>0.40273854626293509</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>0.40273854626293509</v>
+      <c r="A15" s="1">
+        <v>3.2123128139720736E-2</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>3.2123128139720736E-2</v>
+      <c r="A16" s="1">
+        <v>0.38439102902259786</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>0.38439102902259786</v>
+      <c r="A17" s="1">
+        <v>-0.20075360416938051</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>-0.20075360416938051</v>
+      <c r="A18" s="1">
+        <v>-0.3545531639923758</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>-0.3545531639923758</v>
+      <c r="A19" s="1">
+        <v>-0.14376624544028138</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>-0.14376624544028138</v>
+      <c r="A20" s="1">
+        <v>-0.52689595473001727</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>-0.52689595473001727</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>-0.52689595473001727</v>
+      <c r="A22" s="1">
+        <v>-0.23518216631376931</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="A23" s="1">
+        <v>0.4900235605326772</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
         <v>-0.23518216631376931</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>0.4900235605326772</v>
-      </c>
-    </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>-0.23518216631376931</v>
+      <c r="A25" s="1">
+        <v>-0.37729941574307008</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>-0.37729941574307008</v>
+      <c r="A26" s="1">
+        <v>-0.22506976160870171</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>-0.22506976160870171</v>
+      <c r="A27" s="1">
+        <v>-0.19624207686634737</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>-0.19624207686634737</v>
+      <c r="A28" s="1">
+        <v>-0.27180904912188464</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>-0.27180904912188464</v>
+      <c r="A29" s="1">
+        <v>-0.35448735095470962</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30">
+      <c r="A30" s="1">
+        <v>-9.0424575371251495E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>0.78009541424021522</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
         <v>-0.35448735095470962</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>-9.0424575371251495E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>0.78009541424021522</v>
-      </c>
-    </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>-0.35448735095470962</v>
+      <c r="A33" s="1">
+        <v>0.61970440629461743</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>0.61970440629461743</v>
+      <c r="A34" s="1">
+        <v>-0.41955040104228036</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>-0.41955040104228036</v>
+      <c r="A35" s="1">
+        <v>-0.37064081276412386</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>-0.37064081276412386</v>
+      <c r="A36" s="1">
+        <v>-0.47970199921444223</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>-0.47970199921444223</v>
+      <c r="A37" s="1">
+        <v>-0.52850181042144051</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>-0.52850181042144051</v>
+      <c r="A38" s="1">
+        <v>0.60454847341392304</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>0.60454847341392304</v>
+      <c r="A39" s="1">
+        <v>0.22655916766348314</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>0.22655916766348314</v>
+      <c r="A40" s="1">
+        <v>0.77543093991429368</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>0.77543093991429368</v>
+      <c r="A41" s="1">
+        <v>0.41125751547283129</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>0.41125751547283129</v>
+      <c r="A42" s="1">
+        <v>-0.14873447831968892</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>-0.14873447831968892</v>
+      <c r="A43" s="1">
+        <v>7.9975446107224318E-2</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>7.9975446107224318E-2</v>
+      <c r="A44" s="1">
+        <v>0.74040142042523038</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>0.74040142042523038</v>
+      <c r="A45" s="1">
+        <v>0.57188839206110775</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>0.57188839206110775</v>
+      <c r="A46" s="1">
+        <v>0.44183623409684758</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>0.44183623409684758</v>
+      <c r="A47" s="1"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>0.63517076350228507</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>0.63517076350228507</v>
+      <c r="A50" s="1">
+        <v>0.97391277825911626</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>0.97391277825911626</v>
+      <c r="A51" s="1">
+        <v>-0.1462341749130121</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>-0.1462341749130121</v>
+      <c r="A52" s="1">
+        <v>1.0881350306605411</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>1.0881350306605411</v>
+      <c r="A53" s="1">
+        <v>-0.33875714447066768</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>-0.33875714447066768</v>
+      <c r="A54" s="1">
+        <v>1.2659098468155301</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>1.2659098468155301</v>
+      <c r="A55" s="1">
+        <v>-0.15458890960514318</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>-0.15458890960514318</v>
+      <c r="A56" s="1">
+        <v>0.84133680049654413</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>0.84133680049654413</v>
+      <c r="A57" s="1">
+        <v>-0.19265489598777769</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>-0.19265489598777769</v>
+      <c r="A58" s="1">
+        <v>0.96055328382224769</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>0.96055328382224769</v>
+      <c r="A59" s="1">
+        <v>-0.1855454928382331</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>-0.1855454928382331</v>
+      <c r="A60" s="1">
+        <v>-0.29528334026617886</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>-0.29528334026617886</v>
+      <c r="A61" s="1">
+        <v>0.89968893274086004</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>0.89968893274086004</v>
+      <c r="A62" s="1">
+        <v>4.5135708737416597E-2</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>4.5135708737416597E-2</v>
+      <c r="A63" s="1">
+        <v>-0.21381292948389455</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>-0.21381292948389455</v>
+      <c r="A64" s="1">
+        <v>0.92514440619915339</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>0.92514440619915339</v>
+      <c r="A65" s="1">
+        <v>-0.14197718951734936</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>-0.14197718951734936</v>
+      <c r="A66" s="1">
+        <v>0.72480796503748468</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>0.72480796503748468</v>
+      <c r="A67" s="1">
+        <v>1.009383114771667</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>1.009383114771667</v>
+      <c r="A68" s="1">
+        <v>-0.21190257441680568</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>-0.21190257441680568</v>
+      <c r="A69" s="1">
+        <v>-0.44703802763905109</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>-0.44703802763905109</v>
+      <c r="A70" s="1">
+        <v>-0.27359273615681901</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>-0.27359273615681901</v>
+      <c r="A71" s="1">
+        <v>-0.48253480043971131</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>-0.48253480043971131</v>
+      <c r="A72" s="1">
+        <v>-0.14858918819728337</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>-0.14858918819728337</v>
+      <c r="A73" s="1">
+        <v>-0.22393377300830147</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>-0.22393377300830147</v>
+      <c r="A74" s="1">
+        <v>-0.32081519093993061</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>-0.32081519093993061</v>
+      <c r="A75" s="1">
+        <v>-0.2529988830512977</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>-0.2529988830512977</v>
+      <c r="A76" s="1">
+        <v>-0.12592135297475709</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>-0.12592135297475709</v>
+      <c r="A77" s="1">
+        <v>-0.16042085675696052</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>-0.16042085675696052</v>
+      <c r="A78" s="1">
+        <v>-7.4604879597253079E-2</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>-7.4604879597253079E-2</v>
+      <c r="A79" s="1">
+        <v>0.90717431965992024</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>0.90717431965992024</v>
+      <c r="A80" s="1">
+        <v>0.82954454984955284</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>0.82954454984955284</v>
+      <c r="A81" s="1">
+        <v>-0.16777453435471623</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>-0.16777453435471623</v>
+      <c r="A82" s="1">
+        <v>-0.22245590334142085</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>-0.22245590334142085</v>
+      <c r="A83" s="1">
+        <v>-0.20994993784442681</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>-0.20994993784442681</v>
+      <c r="A84" s="1">
+        <v>-0.22437605122663709</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>-0.22437605122663709</v>
+      <c r="A85" s="1">
+        <v>0.73574942710582636</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>0.73574942710582636</v>
+      <c r="A86" s="1">
+        <v>-0.39125335948208811</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>-0.39125335948208811</v>
+      <c r="A87" s="1">
+        <v>-0.34561922725664207</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>-0.34561922725664207</v>
+      <c r="A88" s="1">
+        <v>-0.32902927762215078</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>-0.32902927762215078</v>
+      <c r="A89" s="1">
+        <v>-0.23779110048577937</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>-0.23779110048577937</v>
+      <c r="A90" s="1">
+        <v>1.0852925331676637</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>1.0852925331676637</v>
+      <c r="A91" s="1">
+        <v>1.0037912708730212</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>1.0037912708730212</v>
+      <c r="A92" s="1">
+        <v>-0.3745837905442137</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>-0.3745837905442137</v>
+      <c r="A93" s="1">
+        <v>-0.43535606231224083</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>-0.43535606231224083</v>
+      <c r="A94" s="1">
+        <v>-0.34119683676014151</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>-0.34119683676014151</v>
+      <c r="A95" s="1">
+        <v>0.97244893251913944</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>0.97244893251913944</v>
+      <c r="A96" s="1">
+        <v>-0.37549122953052527</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>-0.37549122953052527</v>
+      <c r="A97" s="1">
+        <v>-0.37132704988111864</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>-0.37132704988111864</v>
+      <c r="A98" s="1">
+        <v>-0.21701228841094386</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>-0.21701228841094386</v>
+      <c r="A99" s="1">
+        <v>-0.4010579406749461</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>-0.4010579406749461</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101">
+      <c r="A100" s="1">
         <v>-0.21648881462916603</v>
       </c>
     </row>
